--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_7_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_7_sawtooth_0.5_.xlsx
@@ -571,55 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.563131863868144e-06</v>
+        <v>1.159224076396903e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001487851104465848</v>
+        <v>2.583161607423796e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1043738738553915</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.056728906040514</v>
+        <v>6.365825451238024</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.9179979638165516, 9.195459848264477]</t>
+          <t>[3.417922702382862, 9.313728200093186]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0001722627953817391</v>
+        <v>2.738413904257442e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003445255907634781</v>
+        <v>5.476827808514884e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.125842476303003</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.666737307551696, -1.5849476450543096]</t>
+          <t>[-1.7484739893853103, -0.7170001251436169]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.814371537686384e-14</v>
+        <v>3.645341768443444e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.962874307537277e-13</v>
+        <v>4.75336125305148e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>14.74018407382889</v>
+        <v>13.98877356041467</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[13.04805539415346, 16.43231275350432]</t>
+          <t>[12.321687018302462, 15.65586010252688]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.578778778778798</v>
+        <v>4.463463463463487</v>
       </c>
       <c r="X2" t="n">
-        <v>5.650450450450464</v>
+        <v>2.596096096096111</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.507107107107132</v>
+        <v>6.330830830830863</v>
       </c>
     </row>
     <row r="3">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005009457321786259</v>
+        <v>2.845748369961765e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002320618948145861</v>
+        <v>0.0001215996211675573</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.393549885390225</v>
+        <v>6.094906309119983</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.244882678811294, 8.542217091969157]</t>
+          <t>[3.0553298273095084, 9.134482790930457]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0008504492309695522</v>
+        <v>9.980915084106812e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008504492309695522</v>
+        <v>9.980915084106812e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09434212172942402</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6729738016698841, 0.8616580451287321]</t>
+          <t>[0.8616580451287321, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.8089488801460338</v>
+        <v>4.75336125305148e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8089488801460338</v>
+        <v>4.75336125305148e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>13.66109068584368</v>
+        <v>12.59400299706103</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.75997833897842, 15.562203032708936]</t>
+          <t>[10.77317554840604, 14.414830445716017]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.40324324324351</v>
+        <v>18.44360360360386</v>
       </c>
       <c r="X3" t="n">
-        <v>20.50162162162186</v>
+        <v>16.02318318318341</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.30486486486517</v>
+        <v>20.86402402402432</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_7_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_7_sawtooth_0.5_.xlsx
@@ -571,55 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.159224076396903e-06</v>
+        <v>0.0002215160463057142</v>
       </c>
       <c r="H2" t="n">
-        <v>2.583161607423796e-05</v>
+        <v>0.002406292188227428</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.796029950379868e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.365825451238024</v>
+        <v>4.734499932066569</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.417922702382862, 9.313728200093186]</t>
+          <t>[2.135133157119885, 7.333866707013254]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.738413904257442e-05</v>
+        <v>0.0003861977803674144</v>
       </c>
       <c r="N2" t="n">
-        <v>5.476827808514884e-05</v>
+        <v>0.0005449817174814076</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.232737057264464</v>
+        <v>-1.597526594618233</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7484739893853103, -0.7170001251436169]</t>
+          <t>[-2.264210921506157, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.645341768443444e-06</v>
+        <v>3.45203080143186e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>4.75336125305148e-06</v>
+        <v>3.45203080143186e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>13.98877356041467</v>
+        <v>12.94304877614935</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.321687018302462, 15.65586010252688]</t>
+          <t>[11.353008057494097, 14.53308949480461]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.463463463463487</v>
+        <v>5.796996996997027</v>
       </c>
       <c r="X2" t="n">
-        <v>2.596096096096111</v>
+        <v>3.377777777777796</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.330830830830863</v>
+        <v>8.216216216216258</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.845748369961765e-05</v>
+        <v>0.0004665014038843784</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001215996211675573</v>
+        <v>0.002406292188227428</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.094906309119983</v>
+        <v>5.359324542086325</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.0553298273095084, 9.134482790930457]</t>
+          <t>[2.3430431587637557, 8.375605925408895]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.980915084106812e-05</v>
+        <v>0.0005449817174814076</v>
       </c>
       <c r="N3" t="n">
-        <v>9.980915084106812e-05</v>
+        <v>0.0005449817174814076</v>
       </c>
       <c r="O3" t="n">
-        <v>1.490605523324887</v>
+        <v>3.113290017070967</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 2.1195530015210418]</t>
+          <t>[2.3711319927995045, 3.8554480413424286]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.75336125305148e-06</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>4.75336125305148e-06</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>12.59400299706103</v>
+        <v>12.97737836345578</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.77317554840604, 14.414830445716017]</t>
+          <t>[11.098877776611541, 14.85587895030001]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.44360360360386</v>
+        <v>12.51675675675698</v>
       </c>
       <c r="X3" t="n">
-        <v>16.02318318318341</v>
+        <v>9.586246246246416</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.86402402402432</v>
+        <v>15.44726726726754</v>
       </c>
     </row>
   </sheetData>
